--- a/q22/Q22填表答案_单值结果_4.0.xlsx
+++ b/q22/Q22填表答案_单值结果_4.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.02654</v>
+        <v>-2.27486</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.019625</v>
+        <v>11.24605</v>
       </c>
     </row>
     <row r="4">
@@ -472,67 +472,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.644533333333333</v>
+        <v>-5.4616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-9.281933333333333</v>
+        <v>-8.904675000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2267428571428571</v>
+        <v>-8.118566666666668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.2294</v>
+        <v>0.6638714285714284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub014</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.8152</v>
+        <v>4.424399999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.756716666666667</v>
+        <v>-18.630975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>sub019</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.4431</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>sub020</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13.7501</v>
+      <c r="B11" t="n">
+        <v>14.29286</v>
       </c>
     </row>
   </sheetData>

--- a/q22/Q22填表答案_单值结果_4.0.xlsx
+++ b/q22/Q22填表答案_单值结果_4.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,101 +448,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.27486</v>
+        <v>-39.99103999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.24605</v>
+        <v>11.38613333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.4616</v>
+        <v>2.8351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8.904675000000001</v>
+        <v>9.429516666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.118566666666668</v>
+        <v>17.76263333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6638714285714284</v>
+        <v>5.1827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.424399999999999</v>
+        <v>-13.54353333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18.630975</v>
+        <v>9.505633333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.4431</v>
+        <v>-2.96718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub086</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.29286</v>
+        <v>17.919475</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-15.543675</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.00365</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10.4381</v>
       </c>
     </row>
   </sheetData>
